--- a/10-conditionally-formatted-plots/10-conditionally-format-plots.xlsx
+++ b/10-conditionally-formatted-plots/10-conditionally-format-plots.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\ready-to-go-python-in-excel-use-cases\10-conditionally-formatted-plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059CC264-7529-46E0-8514-C42763ABEC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2AEE00-058C-4F32-8AA6-B6FD2F27C480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="penguins" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,11 +48,18 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="1">
+  <futureMetadata name="XLRICHVALUE" count="2">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="3"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="4"/>
         </ext>
       </extLst>
     </bk>
@@ -61,9 +69,12 @@
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="1">
+  <valueMetadata count="2">
     <bk>
       <rc t="2" v="0"/>
+    </bk>
+    <bk>
+      <rc t="2" v="1"/>
     </bk>
   </valueMetadata>
 </metadata>
@@ -90,12 +101,18 @@
     <pythonScript>
       <code>penguins_df = xl(%P2%, headers=True)</code>
     </pythonScript>
+    <pythonScript>
+      <code>nyc_df = xl(%P2%, headers=True)
+nyc_df = nyc_df.sort_values('population', ascending=False)
+sns.barplot(x='borough', y='population', data=nyc_df, 
+            palette='Blues_r')</code>
+    </pythonScript>
   </pythonScripts>
 </python>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="23">
   <si>
     <t>species</t>
   </si>
@@ -145,10 +162,25 @@
     <t/>
   </si>
   <si>
-    <t>https://x.com/i/grok/share/jExqmBtQkNcfKWMbbRBkUzdD9</t>
+    <t>The Bronx</t>
   </si>
   <si>
-    <t>This one will be a little trickier</t>
+    <t>Brooklyn</t>
+  </si>
+  <si>
+    <t>Manhattan</t>
+  </si>
+  <si>
+    <t>Queens</t>
+  </si>
+  <si>
+    <t>Staten Island</t>
+  </si>
+  <si>
+    <t>borough</t>
+  </si>
+  <si>
+    <t>population</t>
   </si>
 </sst>
 </file>
@@ -632,8 +664,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -679,7 +712,11 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -690,6 +727,60 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>881062</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>579320</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>253183</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Image generated by Python">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0C2BBCA-7A07-1186-6C31-F1D4B8A599CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="Sheet1!D1"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4957762" y="157163"/>
+          <a:ext cx="5184658" cy="4096520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -836,7 +927,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="5">
   <rv s="0">
     <fb>0</fb>
     <v>2</v>
@@ -859,11 +950,16 @@
     <v>2</v>
     <v>3</v>
   </rv>
+  <rv s="4">
+    <v>0</v>
+    <v>9</v>
+    <v>Image generated by Python</v>
+  </rv>
 </rvData>
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="5">
   <s t="_formattednumber">
     <k n="_Format" t="spb"/>
   </s>
@@ -881,6 +977,11 @@
     <k n="Python_str" t="s"/>
     <k n="preview" t="r"/>
     <k n="_Provider" t="spb"/>
+  </s>
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+    <k n="Text" t="s"/>
   </s>
 </rvStructures>
 </file>
@@ -951,6 +1052,12 @@
 </richStyleSheet>
 </file>
 
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+</richValueRels>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3B0D8451-8DC3-474D-8AB2-8E21F2369F91}" name="penguins" displayName="penguins" ref="A1:G345" totalsRowShown="0">
   <autoFilter ref="A1:G345" xr:uid="{3B0D8451-8DC3-474D-8AB2-8E21F2369F91}"/>
@@ -962,6 +1069,17 @@
     <tableColumn id="5" xr3:uid="{70ECC864-E79A-46FE-9AB1-42035F46B825}" name="flipper_length_mm"/>
     <tableColumn id="6" xr3:uid="{3E38FA5B-52C0-4D4B-9284-0FAA9F4B1FE2}" name="body_mass_g"/>
     <tableColumn id="7" xr3:uid="{FC29996E-F65B-4936-877D-FBBDE7A9D8E8}" name="sex"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{21DD3399-4DB0-484B-A0E6-253DD5C99668}" name="nyc" displayName="nyc" ref="A1:B6" totalsRowShown="0">
+  <autoFilter ref="A1:B6" xr:uid="{21DD3399-4DB0-484B-A0E6-253DD5C99668}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{4F689684-3AF4-4C53-A77D-701D23B74D3A}" name="borough"/>
+    <tableColumn id="2" xr3:uid="{E220B232-3713-462F-B6D3-04E1004D517F}" name="population" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1286,8 +1404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I345"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
@@ -1320,8 +1438,9 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
-        <v>16</v>
+      <c r="I1" t="e" cm="1" vm="1">
+        <f t="array" ref="I1">_xlfn._xlws.PY(0,1,penguins[#All])</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.65">
@@ -1346,10 +1465,6 @@
       <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="e" cm="1" vm="1">
-        <f t="array" ref="I2">_xlfn._xlws.PY(0,1,penguins[#All])</f>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.65">
       <c r="A3" t="s">
@@ -1395,9 +1510,6 @@
       </c>
       <c r="G4" t="s">
         <v>14</v>
-      </c>
-      <c r="I4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.65">
@@ -9225,4 +9337,79 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10181AD2-459B-4695-91A0-3EC1D47FEB25}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
+  <cols>
+    <col min="1" max="1" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.58984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.65">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="e" cm="1" vm="2">
+        <f t="array" ref="D1">_xlfn._xlws.PY(1,0,nyc[#All])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.65">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1472654</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.65">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2736074</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.65">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1694251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.65">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2405464</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.65">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1">
+        <v>495747</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>